--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\pixel-props\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>comments</t>
   </si>
@@ -48,15 +47,6 @@
     <t>tubes</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>controllers</t>
-  </si>
-  <si>
-    <t>misc power / control circuitry</t>
-  </si>
-  <si>
     <t>accelerometer</t>
   </si>
   <si>
@@ -72,20 +62,57 @@
     <t>wireless communications</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Prototype</t>
-  </si>
-  <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>controller / amp stuff for LEDs</t>
+  </si>
+  <si>
+    <t>final product quantity</t>
+  </si>
+  <si>
+    <t>quantity for prototyping</t>
+  </si>
+  <si>
+    <t>microcontroller</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>price ea</t>
+  </si>
+  <si>
+    <t>other hardware, leashes</t>
+  </si>
+  <si>
+    <t>ftdi thing</t>
+  </si>
+  <si>
+    <t>guessing on price</t>
+  </si>
+  <si>
+    <t>misc circuitry (power? other?)</t>
+  </si>
+  <si>
+    <t>cost of producing boards?</t>
+  </si>
+  <si>
+    <t>any tools for prototyping?</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +124,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,15 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -407,132 +448,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>C5*2</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5*(C5+B5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>C6*2</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6*(C6+B6)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7">
+        <f>C7</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7*(C7+B7)</f>
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10*(C10+B10)</f>
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11*(C11+B11)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <f>2*4+4</f>
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C4:C19)</f>
-        <v>217</v>
-      </c>
+      <c r="E18" s="3">
+        <f>SUM(E2:E16)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>comments</t>
   </si>
@@ -68,9 +68,6 @@
     <t>controller / amp stuff for LEDs</t>
   </si>
   <si>
-    <t>final product quantity</t>
-  </si>
-  <si>
     <t>quantity for prototyping</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>price ea</t>
   </si>
   <si>
-    <t>other hardware, leashes</t>
-  </si>
-  <si>
     <t>ftdi thing</t>
   </si>
   <si>
@@ -102,6 +96,84 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>poi final product quantity</t>
+  </si>
+  <si>
+    <t>staff final project quantity</t>
+  </si>
+  <si>
+    <t>Staff hardware?</t>
+  </si>
+  <si>
+    <t>Proto total</t>
+  </si>
+  <si>
+    <t>Staff Total</t>
+  </si>
+  <si>
+    <t>Poi Total</t>
+  </si>
+  <si>
+    <t>Wireless</t>
+  </si>
+  <si>
+    <t>guessing on price based on 2500mAh 7.4V lipoly batteris on hobbyking</t>
+  </si>
+  <si>
+    <t>other poi hardware, leashes</t>
+  </si>
+  <si>
+    <t>guessing on price and dividing it between staff and poi</t>
+  </si>
+  <si>
+    <t>I don't even know what this is; hopefully it's in my micro already</t>
+  </si>
+  <si>
+    <t>guessing on price based on $17 for a xbee</t>
+  </si>
+  <si>
+    <t>iunno</t>
+  </si>
+  <si>
+    <t>I hear between $20 and $50?</t>
+  </si>
+  <si>
+    <t>Proto Ics</t>
+  </si>
+  <si>
+    <t>Poi</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Casing</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Made-up budget estimate for tech fair:</t>
+  </si>
+  <si>
+    <t>ICs</t>
+  </si>
+  <si>
+    <t>casing</t>
+  </si>
+  <si>
+    <t>boards</t>
+  </si>
+  <si>
+    <t>wireless</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -110,7 +182,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -164,8 +236,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -448,254 +520,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F4" si="0">E2*B2</f>
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H4" si="1">G2*B2</f>
+        <v>70</v>
+      </c>
+      <c r="I2" s="3">
+        <f>B2*(G2+E2+C2)</f>
+        <v>140</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <f>B3*(G3+E3+C3)</f>
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <f>B4*(G4+E4+C4)</f>
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <f>C5*2</f>
-        <v>4</v>
+      <c r="B5" s="3">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
+        <f>B5*C5</f>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f>E5*B5</f>
         <v>5</v>
       </c>
-      <c r="E5" s="3">
-        <f>D5*(C5+B5)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5*B5</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <f>B5*(G5+E5+C5)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <f>C6*2</f>
-        <v>4</v>
+      <c r="B6" s="3">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D10" si="2">B6*C6</f>
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F14" si="3">E6*B6</f>
         <v>7</v>
       </c>
-      <c r="E6" s="3">
-        <f>D6*(C6+B6)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H13" si="4">G6*B6</f>
+        <v>14</v>
+      </c>
+      <c r="I6" s="3">
+        <f>B6*(G6+E6+C6)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <f>C7</f>
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E7" s="3">
-        <f>D7*(C7+B7)</f>
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I7" s="3">
+        <f>B7*(G7+E7+C7)</f>
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3">
+        <f>B8*(G8+E8+C8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="3">
+        <f>B9*(G9+E9+C9)</f>
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
+        <f>B10*(G10+E10+C10)</f>
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <f>B11*(G11+E11+C11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <f>G12*B12</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <f>B12*(G12+E12+C12)</f>
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <f>B13*(G13+E13+C13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <f>B14*(G14+E14+C14)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I15" s="3">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="B17" s="3">
+        <f>50/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f>E17*B17</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="H17" s="4">
+        <f>G17*B17</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I17" s="3">
+        <f>B17*(G17+E17+C17)</f>
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3">
+        <f>SUM(I2:I17)</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUM(D2:D16)</f>
+        <v>42</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(F2:F16)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUM(H2:H16)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3">
-        <f>D10*(C10+B10)</f>
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <f>D11*(C11+B11)</f>
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <f>SUM(H26:H29)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM(E2:E16)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f>SUM(H30:H33)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H25:H35)</f>
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="J12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
